--- a/coursework/lab_1/Lab1_PWR/Output/BOM/Bill of Materials-ECE453-PWR.xlsx
+++ b/coursework/lab_1/Lab1_PWR/Output/BOM/Bill of Materials-ECE453-PWR.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A650E8DC-B848-4CF1-9F1A-DCA7C83B6F2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24495" windowHeight="14430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{9A7EA3CB-19D5-4889-8CAF-0175BE0B8C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ECE453-PWR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
   <si>
     <t>Comment</t>
   </si>
@@ -45,6 +51,129 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>CAP CER 1 UF 6.3V 10% X5R 0805</t>
+  </si>
+  <si>
+    <t>C1, C4</t>
+  </si>
+  <si>
+    <t>CAP_0805</t>
+  </si>
+  <si>
+    <t>CAP_0805_U_001.00</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0805C105K9PACTU</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>CAP CER 4.7 UF 16V 10% X5R 0805</t>
+  </si>
+  <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>CAP_0805_U_004.70</t>
+  </si>
+  <si>
+    <t>Kyocera AVX</t>
+  </si>
+  <si>
+    <t>0805YD475KAT2A</t>
+  </si>
+  <si>
+    <t>0.01uF</t>
+  </si>
+  <si>
+    <t>CAP CER 10000PF 16V 10% X7R 0805</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>CAP_0805_U_000.01</t>
+  </si>
+  <si>
+    <t>C0805C103K4RACTU</t>
+  </si>
+  <si>
+    <t>100 uF</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>CAP_100uF</t>
+  </si>
+  <si>
+    <t>Nichicon</t>
+  </si>
+  <si>
+    <t>UCD1V101MNL1GS</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1 UF 6.3V 10% X7R 0805</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>CAP_0805_U_000.10</t>
+  </si>
+  <si>
+    <t>C0805C104K9RACTU</t>
+  </si>
+  <si>
+    <t>DIODE_B340A</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 40V 3A SMA</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>B340A</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>B340A-13-F</t>
+  </si>
+  <si>
+    <t>LED_GREEN_0805.1</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR THIN 0805 SMD</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
+  </si>
+  <si>
+    <t>LED_GRN_0805</t>
+  </si>
+  <si>
+    <t>Vishay Lite-On</t>
+  </si>
+  <si>
+    <t>LTST-C171KGKT</t>
+  </si>
+  <si>
     <t>CONN_HEADER_MALE_8x2</t>
   </si>
   <si>
@@ -90,6 +219,21 @@
     <t>PJ-102A</t>
   </si>
   <si>
+    <t>IND_8040S_270M</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>IND-ASPI-8040S</t>
+  </si>
+  <si>
+    <t>Abracon</t>
+  </si>
+  <si>
+    <t>ASPI-8040S-270M-T</t>
+  </si>
+  <si>
     <t>PMOD F14 REV A</t>
   </si>
   <si>
@@ -99,22 +243,19 @@
     <t>PCB1</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>PMOD F14 Rev A Bare PCB</t>
   </si>
   <si>
     <t>TBD</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>RES 10K 1/10W 1% 0805 SMD</t>
-  </si>
-  <si>
-    <t>R1</t>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R1, R4</t>
   </si>
   <si>
     <t>RES_0805</t>
@@ -123,10 +264,49 @@
     <t>RES_0805_K_010.00</t>
   </si>
   <si>
-    <t>TDK EPCOS</t>
-  </si>
-  <si>
-    <t>ERJ6ENF1002V</t>
+    <t>RES_0805_K_003.34</t>
+  </si>
+  <si>
+    <t>RES SMD 3.24K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF3241V</t>
+  </si>
+  <si>
+    <t>27K</t>
+  </si>
+  <si>
+    <t>RES SMD 27.0K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>RES_0805_K_027.00</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>CR0805-FX-2702GLF</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>RES SMD 330 OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R5, R6</t>
+  </si>
+  <si>
+    <t>RES_0805_R_330.00</t>
   </si>
   <si>
     <t>TP_1206</t>
@@ -135,7 +315,7 @@
     <t>Test Point SMD 1206</t>
   </si>
   <si>
-    <t>TP1, TP2</t>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9</t>
   </si>
   <si>
     <t>TP-SMC-1206</t>
@@ -145,12 +325,54 @@
   </si>
   <si>
     <t>RCS-0C</t>
+  </si>
+  <si>
+    <t>IC-TLV733P</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V 300MA SOT23-5</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>TI-SOT-23-5</t>
+  </si>
+  <si>
+    <t>IC_TPS5420</t>
+  </si>
+  <si>
+    <t>IC REG BUCK ADJ 2A 8SOIC</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>TI-SOIC-8</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>TPS5420DR</t>
+  </si>
+  <si>
+    <t>IC_TPS3705-33DGN.1</t>
+  </si>
+  <si>
+    <t>IC 2.93V PROCESSOR MONITOR 8MSOP</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>TPS3705-33D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +481,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -271,7 +493,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -318,6 +540,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -353,6 +592,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,8 +760,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F098BF3-366F-41E9-8C74-670BA2C3BB3A}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,65 +810,65 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -620,25 +876,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -646,25 +902,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -672,46 +928,438 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="Component" display="'Sullins"/>
-    <hyperlink ref="G2" r:id="rId2" tooltip="Manufacturer" display="'SBH11-PBPC-D08-ST-BK"/>
-    <hyperlink ref="F3" r:id="rId3" tooltip="Component" display="'Sullins"/>
-    <hyperlink ref="G3" r:id="rId4" tooltip="Manufacturer" display="'SBH11-PBPC-D05-ST-BK"/>
-    <hyperlink ref="F4" r:id="rId5" tooltip="Component" display="'CUI"/>
-    <hyperlink ref="G4" r:id="rId6" tooltip="Manufacturer" display="'PJ-102A"/>
-    <hyperlink ref="F5" r:id="rId7" tooltip="Component" display="'TBD"/>
-    <hyperlink ref="G5" r:id="rId8" tooltip="Manufacturer" display="'PMOD F14 REV A"/>
-    <hyperlink ref="F6" r:id="rId9" tooltip="Component" display="'TDK EPCOS"/>
-    <hyperlink ref="G6" r:id="rId10" tooltip="Manufacturer" display="'ERJ6ENF1002V"/>
-    <hyperlink ref="F7" r:id="rId11" tooltip="Component" display="'TE Connectivity CGS"/>
-    <hyperlink ref="G7" r:id="rId12" tooltip="Manufacturer" display="'RCS-0C"/>
+    <hyperlink ref="F2" r:id="rId1" tooltip="Component" display="'KEMET" xr:uid="{250987DA-3C46-45DD-A110-2055113E4D92}"/>
+    <hyperlink ref="G2" r:id="rId2" tooltip="Manufacturer" display="'C0805C105K9PACTU" xr:uid="{1CB5F995-C90F-4D0B-8A30-A523C15B7EE9}"/>
+    <hyperlink ref="F3" r:id="rId3" tooltip="Component" display="'Kyocera AVX" xr:uid="{08EA2277-B4E6-4FA6-B596-16BBB613F00E}"/>
+    <hyperlink ref="G3" r:id="rId4" tooltip="Manufacturer" display="'0805YD475KAT2A" xr:uid="{C2065B9D-A51E-4802-9D47-6CB401CE78AD}"/>
+    <hyperlink ref="F4" r:id="rId5" tooltip="Component" display="'KEMET" xr:uid="{D0AD76C4-F782-4F4F-8111-51F128ECC0B6}"/>
+    <hyperlink ref="G4" r:id="rId6" tooltip="Manufacturer" display="'C0805C103K4RACTU" xr:uid="{E83331A6-5C9F-470F-A94D-E1D74648626E}"/>
+    <hyperlink ref="F5" r:id="rId7" tooltip="Component" display="'Nichicon" xr:uid="{D2E48BC2-0ECB-4FD6-9B98-C03127F7AD01}"/>
+    <hyperlink ref="G5" r:id="rId8" tooltip="Manufacturer" display="'UCD1V101MNL1GS" xr:uid="{A565BA6C-592F-4578-A520-1093EDCB22E7}"/>
+    <hyperlink ref="F6" r:id="rId9" tooltip="Component" display="'KEMET" xr:uid="{C2D286F7-97F1-467A-B22B-B75596B98FAA}"/>
+    <hyperlink ref="G6" r:id="rId10" tooltip="Manufacturer" display="'C0805C104K9RACTU" xr:uid="{74CF14F5-076E-4D7D-A291-44F9C40DF31E}"/>
+    <hyperlink ref="F7" r:id="rId11" tooltip="Component" display="'Diodes" xr:uid="{D4D413CE-8C35-4C10-9DA8-49686030B184}"/>
+    <hyperlink ref="G7" r:id="rId12" tooltip="Manufacturer" display="'B340A-13-F" xr:uid="{CB04D89B-A810-41DC-9D98-7F5D905E453D}"/>
+    <hyperlink ref="F8" r:id="rId13" tooltip="Component" display="'Vishay Lite-On" xr:uid="{8ED6E85A-0857-4065-AC30-CCD0E4473055}"/>
+    <hyperlink ref="G8" r:id="rId14" tooltip="Manufacturer" display="'LTST-C171KGKT" xr:uid="{2A8F72D2-96DA-48EE-868F-EEC99D568D4B}"/>
+    <hyperlink ref="F9" r:id="rId15" tooltip="Component" display="'Sullins" xr:uid="{D484B503-9B72-4E8E-A824-470F239E0390}"/>
+    <hyperlink ref="G9" r:id="rId16" tooltip="Manufacturer" display="'SBH11-PBPC-D08-ST-BK" xr:uid="{0EC36508-04F8-466A-9347-3162CBB66E4D}"/>
+    <hyperlink ref="F10" r:id="rId17" tooltip="Component" display="'Sullins" xr:uid="{C90F747E-E231-41B4-9DD5-BA3AF1BD13FE}"/>
+    <hyperlink ref="G10" r:id="rId18" tooltip="Manufacturer" display="'SBH11-PBPC-D05-ST-BK" xr:uid="{9AF1896F-8480-4FC5-86EC-67AEE55E76D1}"/>
+    <hyperlink ref="F11" r:id="rId19" tooltip="Component" display="'CUI" xr:uid="{4716E77F-33B0-4D59-A107-08385CAE4D30}"/>
+    <hyperlink ref="G11" r:id="rId20" tooltip="Manufacturer" display="'PJ-102A" xr:uid="{F5C67F3D-8D31-4CFB-9041-64DC71545B55}"/>
+    <hyperlink ref="F12" r:id="rId21" tooltip="Component" display="'Abracon" xr:uid="{EB027984-FC3F-451B-9F1A-F8AB3EED0806}"/>
+    <hyperlink ref="G12" r:id="rId22" tooltip="Manufacturer" display="'ASPI-8040S-270M-T" xr:uid="{B197D103-2563-4B7F-ACD6-3FED485A291D}"/>
+    <hyperlink ref="F13" r:id="rId23" tooltip="Component" display="'TBD" xr:uid="{DD3C692D-6BD5-4E83-833F-EFF55880C147}"/>
+    <hyperlink ref="G13" r:id="rId24" tooltip="Manufacturer" display="'PMOD F14 REV A" xr:uid="{AF6683DC-FBCC-417E-9713-58843CF6572C}"/>
+    <hyperlink ref="F14" tooltip="Component" display="'" xr:uid="{2361AD3C-39ED-4154-87CC-653963CF29F2}"/>
+    <hyperlink ref="G14" tooltip="Manufacturer" display="'" xr:uid="{919CC3AE-3265-42F4-A847-A321C90D4022}"/>
+    <hyperlink ref="F15" r:id="rId25" tooltip="Component" display="'Panasonic" xr:uid="{A716013F-3D72-4520-9F8E-661B210E42AC}"/>
+    <hyperlink ref="G15" r:id="rId26" tooltip="Manufacturer" display="'ERJ-6ENF3241V" xr:uid="{C92FC792-E9FD-4DA2-9C21-20DDCBEBFDEB}"/>
+    <hyperlink ref="F16" r:id="rId27" tooltip="Component" display="'Bourns" xr:uid="{28E70B34-FFFC-41C9-A8C7-6D79FC613197}"/>
+    <hyperlink ref="G16" r:id="rId28" tooltip="Manufacturer" display="'CR0805-FX-2702GLF" xr:uid="{EB183677-6833-40A7-B6AC-B44D2067EC68}"/>
+    <hyperlink ref="F17" tooltip="Component" display="'" xr:uid="{48165FC6-0419-4926-AE39-85E46D2FE5ED}"/>
+    <hyperlink ref="G17" tooltip="Manufacturer" display="'" xr:uid="{B700CB4B-F8CB-4F3C-A323-BDC5522EDE43}"/>
+    <hyperlink ref="F18" r:id="rId29" tooltip="Component" display="'TE Connectivity CGS" xr:uid="{5A0A1DD0-E3F5-46A6-95CB-A19658E54F16}"/>
+    <hyperlink ref="G18" r:id="rId30" tooltip="Manufacturer" display="'RCS-0C" xr:uid="{A1138CD0-2D8B-4DE7-B88F-256320DFAF54}"/>
+    <hyperlink ref="F19" tooltip="Component" display="'" xr:uid="{6F271824-6D23-4737-8272-7FDC75EBE2B7}"/>
+    <hyperlink ref="G19" tooltip="Manufacturer" display="'" xr:uid="{A66EAC58-C907-476A-A25A-1493AAEF4EDE}"/>
+    <hyperlink ref="F20" r:id="rId31" tooltip="Component" display="'Texas Instruments" xr:uid="{54DAFFD5-5903-4006-8C24-2CCECC4302AF}"/>
+    <hyperlink ref="G20" r:id="rId32" tooltip="Manufacturer" display="'TPS5420DR" xr:uid="{DD77A999-EA9C-460C-A307-C4EACC5F9FAA}"/>
+    <hyperlink ref="F21" r:id="rId33" tooltip="Component" display="'Texas Instruments" xr:uid="{75A8619A-9DBB-4273-B098-C925CEB4F1A4}"/>
+    <hyperlink ref="G21" r:id="rId34" tooltip="Manufacturer" display="'TPS3705-33D" xr:uid="{38DA041D-6E0A-4B1C-B3A6-1FD5DE8B1338}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>